--- a/genshin/455166898731369638_2020-11-08_14-00-02.xlsx
+++ b/genshin/455166898731369638_2020-11-08_14-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 01:59:58</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.08331018518</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>3696968676</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-11-11 21:05:33</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44146.87885416667</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -697,10 +709,8 @@
           <t>3696968676</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-11-11 20:57:16</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44146.87310185185</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -772,10 +782,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-11-10 21:26:26</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44145.89335648148</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -835,10 +843,8 @@
           <t>3688031055</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-11-10 17:57:15</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44145.74809027778</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -914,10 +920,8 @@
           <t>3688031055</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:51:35</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44145.70248842592</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -985,10 +989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-11-10 13:07:23</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44145.54679398148</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1052,10 +1054,8 @@
           <t>3689136404</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-11-10 09:44:36</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44145.40597222222</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1133,10 +1133,8 @@
           <t>3691516094</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-11-10 05:36:41</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44145.23380787037</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1212,10 +1210,8 @@
           <t>3689136404</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-11-10 00:13:17</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44145.00922453704</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1279,10 +1275,8 @@
           <t>3689136404</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-11-09 22:02:08</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44144.91814814815</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1358,10 +1352,8 @@
           <t>3688031055</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-11-09 19:45:09</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44144.82302083333</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1437,10 +1429,8 @@
           <t>3690022271</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-11-09 19:14:56</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44144.80203703704</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1512,10 +1502,8 @@
           <t>3688031055</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-11-09 18:48:04</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44144.78337962963</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1583,10 +1571,8 @@
           <t>3688031055</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-11-09 14:18:41</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44144.59630787037</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1662,10 +1648,8 @@
           <t>3688031055</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-11-09 14:15:42</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44144.59423611111</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1733,10 +1717,8 @@
           <t>3689137949</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-11-09 13:50:04</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44144.57643518518</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1800,10 +1782,8 @@
           <t>3689136404</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-11-09 13:47:59</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44144.57498842593</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1867,10 +1847,8 @@
           <t>3688453117</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-11-09 12:40:41</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44144.52825231481</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1947,10 +1925,8 @@
           <t>3688453117</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-11-09 12:40:10</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44144.52789351852</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2026,10 +2002,8 @@
           <t>3688031055</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-11-09 12:31:36</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44144.52194444444</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2105,10 +2079,8 @@
           <t>3688741295</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-11-09 11:37:40</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44144.48449074074</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -2176,10 +2148,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-11-09 10:41:58</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44144.44581018519</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2255,10 +2225,8 @@
           <t>3688598090</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-11-09 10:36:03</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44144.44170138889</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -2326,10 +2294,8 @@
           <t>3688482565</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-11-09 09:36:52</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44144.40060185185</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2405,10 +2371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-11-09 09:28:22</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44144.39469907407</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2480,10 +2444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-11-09 09:24:16</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44144.39185185185</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2547,10 +2509,8 @@
           <t>3688453117</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-11-09 09:21:16</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44144.38976851852</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2614,10 +2574,8 @@
           <t>3686176959</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-11-09 09:13:52</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44144.38462962963</v>
       </c>
       <c r="I30" t="n">
         <v>2</v>
@@ -2685,10 +2643,8 @@
           <t>3688031055</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-11-09 08:44:32</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44144.36425925926</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2760,10 +2716,8 @@
           <t>3688324788</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-11-09 08:00:21</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44144.33357638889</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2835,10 +2789,8 @@
           <t>3688324395</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-11-09 07:59:33</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44144.33302083334</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2906,10 +2858,8 @@
           <t>3688330217</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-11-09 07:59:25</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44144.33292824074</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2981,10 +2931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-11-09 07:52:38</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44144.32821759259</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -3048,10 +2996,8 @@
           <t>3688250856</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-11-09 06:30:24</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44144.27111111111</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3127,10 +3073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-11-09 06:09:45</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44144.25677083333</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3198,10 +3142,8 @@
           <t>3688031055</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-11-09 06:08:44</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44144.25606481481</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3269,10 +3211,8 @@
           <t>3686447174</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-11-09 06:06:54</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44144.25479166667</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3340,10 +3280,8 @@
           <t>3688117007</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-11-09 02:12:05</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44144.09172453704</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3419,10 +3357,8 @@
           <t>3688073934</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-11-09 01:41:40</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44144.07060185185</v>
       </c>
       <c r="I41" t="n">
         <v>3</v>
@@ -3490,10 +3426,8 @@
           <t>3688059189</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-11-09 01:32:56</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44144.06453703704</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3561,10 +3495,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-11-09 01:28:38</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44144.06155092592</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3633,10 +3565,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-11-09 01:17:44</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44144.05398148148</v>
       </c>
       <c r="I44" t="n">
         <v>3</v>
@@ -3713,10 +3643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-11-09 01:15:51</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44144.05267361111</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3792,10 +3720,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-11-09 01:13:58</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44144.05136574074</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3859,10 +3785,8 @@
           <t>3688031055</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-11-09 01:13:48</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44144.05125</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -3939,10 +3863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-11-09 01:13:20</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44144.05092592593</v>
       </c>
       <c r="I48" t="n">
         <v>2</v>
@@ -4018,10 +3940,8 @@
           <t>3688021581</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-11-09 01:08:59</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44144.04790509259</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4097,10 +4017,8 @@
           <t>3688010934</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-11-09 01:03:12</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44144.04388888889</v>
       </c>
       <c r="I50" t="n">
         <v>7</v>
@@ -4164,10 +4082,8 @@
           <t>3687973672</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-11-09 00:50:21</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44144.03496527778</v>
       </c>
       <c r="I51" t="n">
         <v>5</v>
@@ -4231,10 +4147,8 @@
           <t>3687969703</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-11-09 00:48:26</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44144.03363425926</v>
       </c>
       <c r="I52" t="n">
         <v>5</v>
@@ -4298,10 +4212,8 @@
           <t>3687943605</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-11-09 00:38:51</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44144.02697916667</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4365,10 +4277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-11-08 23:58:36</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44143.99902777778</v>
       </c>
       <c r="I54" t="n">
         <v>5</v>
@@ -4428,10 +4338,8 @@
           <t>3687735816</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-11-08 23:34:06</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44143.98201388889</v>
       </c>
       <c r="I55" t="n">
         <v>2</v>
@@ -4496,10 +4404,8 @@
           <t>3687703871</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-11-08 23:28:10</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44143.97789351852</v>
       </c>
       <c r="I56" t="n">
         <v>4</v>
@@ -4567,10 +4473,8 @@
           <t>3687659676</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-11-08 23:17:42</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44143.970625</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -4640,10 +4544,8 @@
           <t>3687566470</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-11-08 22:54:15</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44143.95434027778</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4715,10 +4617,8 @@
           <t>3687554794</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-11-08 22:53:06</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44143.95354166667</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4790,10 +4690,8 @@
           <t>3687538685</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-11-08 22:48:54</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44143.950625</v>
       </c>
       <c r="I60" t="n">
         <v>3</v>
@@ -4869,10 +4767,8 @@
           <t>3687513113</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-11-08 22:41:34</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44143.94553240741</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4940,10 +4836,8 @@
           <t>3687492092</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-11-08 22:38:35</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44143.94346064814</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5011,10 +4905,8 @@
           <t>3687492092</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-11-08 22:37:21</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44143.94260416667</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5086,10 +4978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-11-08 22:35:04</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44143.94101851852</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5157,10 +5047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-11-08 22:13:15</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44143.92586805556</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5228,10 +5116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-11-08 22:02:32</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44143.91842592593</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5307,10 +5193,8 @@
           <t>3687180776</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-11-08 21:21:18</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44143.88979166667</v>
       </c>
       <c r="I67" t="n">
         <v>2</v>
@@ -5374,10 +5258,8 @@
           <t>3687087420</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-11-08 20:56:51</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44143.8728125</v>
       </c>
       <c r="I68" t="n">
         <v>12</v>
@@ -5453,10 +5335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-11-08 20:43:55</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44143.86383101852</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5532,10 +5412,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-11-08 20:42:04</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44143.8625462963</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5599,10 +5477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-11-08 20:39:06</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44143.86048611111</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5670,10 +5546,8 @@
           <t>3686892443</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-11-08 20:04:44</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44143.83662037037</v>
       </c>
       <c r="I72" t="n">
         <v>3</v>
@@ -5741,10 +5615,8 @@
           <t>3686784599</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-11-08 19:36:51</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44143.81725694444</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
@@ -5808,10 +5680,8 @@
           <t>3686447174</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-11-08 19:31:33</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44143.81357638889</v>
       </c>
       <c r="I74" t="n">
         <v>3</v>
@@ -5887,10 +5757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-11-08 19:30:36</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44143.81291666667</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5954,10 +5822,8 @@
           <t>3686748017</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-11-08 19:26:16</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44143.80990740741</v>
       </c>
       <c r="I76" t="n">
         <v>4</v>
@@ -6017,10 +5883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-11-08 19:15:52</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44143.80268518518</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6096,10 +5960,8 @@
           <t>3686447174</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-11-08 19:15:16</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44143.80226851852</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -6159,10 +6021,8 @@
           <t>3685772572</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-11-08 19:10:50</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44143.79918981482</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6230,10 +6090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-11-08 18:53:36</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44143.78722222222</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6302,10 +6160,8 @@
           <t>3685960972</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-11-08 18:48:25</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44143.78362268519</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6365,10 +6221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-11-08 18:47:54</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44143.78326388889</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6440,10 +6294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-11-08 18:46:18</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44143.78215277778</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6515,10 +6367,8 @@
           <t>3686589288</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-11-08 18:44:13</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44143.78070601852</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6586,10 +6436,8 @@
           <t>3686553388</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-11-08 18:34:47</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44143.77415509259</v>
       </c>
       <c r="I85" t="n">
         <v>2</v>
@@ -6665,10 +6513,8 @@
           <t>3685960972</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-11-08 18:34:20</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44143.77384259259</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6744,10 +6590,8 @@
           <t>3685960972</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-11-08 18:33:30</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44143.77326388889</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6823,10 +6667,8 @@
           <t>3685960972</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-11-08 18:32:49</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44143.77278935185</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6905,10 +6747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-11-08 18:32:12</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44143.77236111111</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6985,10 +6825,8 @@
           <t>3686501864</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-11-08 18:21:05</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44143.76464120371</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7064,10 +6902,8 @@
           <t>3686447174</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-11-08 18:15:49</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44143.7609837963</v>
       </c>
       <c r="I91" t="n">
         <v>5</v>
@@ -7131,10 +6967,8 @@
           <t>3686068240</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-11-08 18:10:53</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44143.75755787037</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7206,10 +7040,8 @@
           <t>3686447174</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-11-08 18:08:10</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44143.7556712963</v>
       </c>
       <c r="I93" t="n">
         <v>7</v>
@@ -7281,10 +7113,8 @@
           <t>3686447174</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-11-08 18:06:04</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44143.75421296297</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -7348,10 +7178,8 @@
           <t>3685960972</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-11-08 17:55:49</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44143.7470949074</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7411,10 +7239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-11-08 17:54:48</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44143.74638888889</v>
       </c>
       <c r="I96" t="n">
         <v>2</v>
@@ -7481,10 +7307,8 @@
           <t>3685960972</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-11-08 17:54:25</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44143.74612268519</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7544,10 +7368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-11-08 17:54:18</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44143.74604166667</v>
       </c>
       <c r="I98" t="n">
         <v>2</v>
@@ -7615,10 +7437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-11-08 17:52:52</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44143.7450462963</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7686,10 +7506,8 @@
           <t>3686381198</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-11-08 17:48:05</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44143.74172453704</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -7757,10 +7575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-11-08 17:39:38</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44143.73585648148</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7836,10 +7652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-11-08 17:38:36</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44143.73513888889</v>
       </c>
       <c r="I102" t="n">
         <v>16</v>
@@ -7907,10 +7721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-11-08 17:36:50</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44143.73391203704</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7974,10 +7786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-11-08 17:32:03</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44143.73059027778</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8045,10 +7855,8 @@
           <t>3686266142</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-11-08 17:13:51</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44143.71795138889</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8112,10 +7920,8 @@
           <t>3686249291</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-11-08 17:10:58</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44143.71594907407</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -8179,10 +7985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-11-08 17:09:01</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44143.7145949074</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8250,10 +8054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-11-08 17:05:01</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44143.71181712963</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8333,10 +8135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-11-08 16:57:11</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44143.70637731482</v>
       </c>
       <c r="I109" t="n">
         <v>58</v>
@@ -8400,10 +8200,8 @@
           <t>3686122114</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-11-08 16:56:39</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44143.70600694444</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8479,10 +8277,8 @@
           <t>3686179634</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-11-08 16:49:23</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44143.70096064815</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8550,10 +8346,8 @@
           <t>3686176959</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-11-08 16:46:48</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44143.69916666667</v>
       </c>
       <c r="I112" t="n">
         <v>2</v>
@@ -8617,10 +8411,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-11-08 16:46:12</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44143.69875</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8688,10 +8480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-11-08 16:38:31</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44143.69341435185</v>
       </c>
       <c r="I114" t="n">
         <v>1</v>
@@ -8763,10 +8553,8 @@
           <t>3686122114</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-11-08 16:29:33</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44143.6871875</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8838,10 +8626,8 @@
           <t>3686114298</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-11-08 16:28:07</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44143.68619212963</v>
       </c>
       <c r="I116" t="n">
         <v>13</v>
@@ -8909,10 +8695,8 @@
           <t>3686117067</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-11-08 16:27:24</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44143.68569444444</v>
       </c>
       <c r="I117" t="n">
         <v>5</v>
@@ -8980,10 +8764,8 @@
           <t>3686112788</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-11-08 16:26:42</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44143.68520833334</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9051,10 +8833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-11-08 16:23:51</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44143.68322916667</v>
       </c>
       <c r="I119" t="n">
         <v>10</v>
@@ -9130,10 +8910,8 @@
           <t>3685960972</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-11-08 16:23:10</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44143.68275462963</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9197,10 +8975,8 @@
           <t>3686102091</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-11-08 16:22:35</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44143.68234953703</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9276,10 +9052,8 @@
           <t>3685960972</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-11-08 16:22:28</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44143.68226851852</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9343,10 +9117,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-11-08 16:22:05</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44143.68200231482</v>
       </c>
       <c r="I123" t="n">
         <v>2</v>
@@ -9414,10 +9186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-11-08 16:20:42</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44143.68104166666</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9477,10 +9247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-11-08 16:15:40</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44143.6775462963</v>
       </c>
       <c r="I125" t="n">
         <v>51</v>
@@ -9544,10 +9312,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-11-08 16:15:04</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44143.67712962963</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9619,10 +9385,8 @@
           <t>3686068240</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-11-08 16:12:35</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44143.6754050926</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9690,10 +9454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-11-08 16:10:20</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44143.67384259259</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9769,10 +9531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-11-08 16:09:21</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44143.67315972222</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9849,10 +9609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-11-08 16:00:12</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44143.66680555556</v>
       </c>
       <c r="I130" t="n">
         <v>1</v>
@@ -9920,10 +9678,8 @@
           <t>3686027652</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-11-08 15:58:46</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44143.66581018519</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9991,10 +9747,8 @@
           <t>3686019379</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-11-08 15:57:47</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44143.66512731482</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10062,10 +9816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-11-08 15:53:05</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44143.66186342593</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10133,10 +9885,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-11-08 15:52:49</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44143.66167824074</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10200,10 +9950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-11-08 15:50:58</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44143.66039351852</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10267,10 +10015,8 @@
           <t>3685984696</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-11-08 15:45:50</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44143.6568287037</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10342,10 +10088,8 @@
           <t>3685985624</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-11-08 15:44:14</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44143.65571759259</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10417,10 +10161,8 @@
           <t>3685960972</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-11-08 15:44:09</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44143.65565972222</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10496,10 +10238,8 @@
           <t>3685772572</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-11-08 15:43:27</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44143.65517361111</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10563,10 +10303,8 @@
           <t>3685975954</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-11-08 15:40:30</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44143.653125</v>
       </c>
       <c r="I140" t="n">
         <v>1</v>
@@ -10634,10 +10372,8 @@
           <t>3685960972</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-11-08 15:35:31</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44143.64966435185</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10701,10 +10437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-11-08 15:34:51</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44143.64920138889</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10772,10 +10506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-11-08 15:29:15</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44143.6453125</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10851,10 +10583,8 @@
           <t>3685880809</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-11-08 15:28:26</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44143.64474537037</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10914,10 +10644,8 @@
           <t>3685933626</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-11-08 15:28:22</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44143.64469907407</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -10985,10 +10713,8 @@
           <t>3685892772</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-11-08 15:28:18</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44143.64465277778</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11048,10 +10774,8 @@
           <t>3685925633</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-11-08 15:24:50</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44143.64224537037</v>
       </c>
       <c r="I147" t="n">
         <v>1</v>
@@ -11115,10 +10839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-11-08 15:23:50</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44143.64155092592</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -11182,10 +10904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-11-08 15:19:14</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44143.63835648148</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11257,10 +10977,8 @@
           <t>3685907233</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-11-08 15:18:59</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44143.63818287037</v>
       </c>
       <c r="I150" t="n">
         <v>5</v>
@@ -11324,10 +11042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-11-08 15:18:51</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44143.63809027777</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11391,10 +11107,8 @@
           <t>3685892772</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-11-08 15:14:34</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44143.63511574074</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11470,10 +11184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-11-08 15:14:12</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44143.63486111111</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11537,10 +11249,8 @@
           <t>3685785703</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-11-08 15:14:12</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44143.63486111111</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11616,10 +11326,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-11-08 15:14:04</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44143.63476851852</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11687,10 +11395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-11-08 15:12:03</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44143.63336805555</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11750,10 +11456,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-11-08 15:11:51</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44143.63322916667</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11825,10 +11529,8 @@
           <t>3685880809</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-11-08 15:10:31</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44143.63230324074</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11904,10 +11606,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-11-08 15:10:23</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44143.63221064815</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11979,10 +11679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-11-08 15:09:32</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44143.63162037037</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12042,10 +11740,8 @@
           <t>3685849645</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-11-08 15:01:28</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44143.62601851852</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12121,10 +11817,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:56:30</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44143.62256944444</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12196,10 +11890,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:53:34</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44143.62053240741</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -12267,10 +11959,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:49:50</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44143.61793981482</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -12346,10 +12036,8 @@
           <t>3685807574</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:48:06</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44143.61673611111</v>
       </c>
       <c r="I165" t="n">
         <v>7</v>
@@ -12417,10 +12105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:46:35</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44143.61568287037</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12484,10 +12170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:45:01</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44143.61459490741</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12563,10 +12247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:42:51</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44143.61309027778</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12638,10 +12320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:39:39</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44143.61086805556</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12709,10 +12389,8 @@
           <t>3685772572</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:38:29</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44143.61005787037</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12776,10 +12454,8 @@
           <t>3685785703</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:38:15</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44143.60989583333</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12849,10 +12525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:38:10</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44143.60983796296</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -12922,10 +12596,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:38:05</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44143.60978009259</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -12993,10 +12665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:37:45</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44143.60954861111</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13064,10 +12734,8 @@
           <t>3685772572</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:35:11</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44143.60776620371</v>
       </c>
       <c r="I175" t="n">
         <v>28</v>
@@ -13143,10 +12811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:34:46</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44143.60747685185</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13210,10 +12876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:32:39</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44143.60600694444</v>
       </c>
       <c r="I177" t="n">
         <v>5</v>
@@ -13277,10 +12941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:29:37</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44143.60390046296</v>
       </c>
       <c r="I178" t="n">
         <v>1</v>
@@ -13352,10 +13014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:28:42</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44143.60326388889</v>
       </c>
       <c r="I179" t="n">
         <v>2</v>
@@ -13427,10 +13087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:27:38</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44143.60252314815</v>
       </c>
       <c r="I180" t="n">
         <v>1</v>
@@ -13498,10 +13156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:25:57</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44143.60135416667</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13577,10 +13233,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:25:46</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44143.60122685185</v>
       </c>
       <c r="I182" t="n">
         <v>3</v>
@@ -13656,10 +13310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:21:21</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44143.59815972222</v>
       </c>
       <c r="I183" t="n">
         <v>1</v>
@@ -13731,10 +13383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:19:26</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44143.5968287037</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13810,10 +13460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:16:48</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44143.595</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13885,10 +13533,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:16:36</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44143.59486111111</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13952,10 +13598,8 @@
           <t>3685695365</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:12:46</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44143.59219907408</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14027,10 +13671,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:11:43</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44143.59146990741</v>
       </c>
       <c r="I188" t="n">
         <v>1</v>
@@ -14090,10 +13732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:10:45</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44143.59079861111</v>
       </c>
       <c r="I189" t="n">
         <v>1</v>
@@ -14161,10 +13801,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:09:37</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44143.59001157407</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14232,10 +13870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:09:36</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44143.59</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14303,10 +13939,8 @@
           <t>3685695365</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:09:13</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44143.5897337963</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14378,10 +14012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:08:14</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44143.58905092593</v>
       </c>
       <c r="I193" t="n">
         <v>1</v>
@@ -14453,10 +14085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:06:58</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44143.58817129629</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14532,10 +14162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:05:58</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44143.58747685186</v>
       </c>
       <c r="I195" t="n">
         <v>139</v>
@@ -14611,10 +14239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:05:45</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44143.58732638889</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14682,10 +14308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:05:36</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44143.58722222222</v>
       </c>
       <c r="I197" t="n">
         <v>2</v>
@@ -14761,10 +14385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:05:21</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44143.58704861111</v>
       </c>
       <c r="I198" t="n">
         <v>2</v>
@@ -14840,10 +14462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:04:45</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44143.58663194445</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14907,10 +14527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:04:17</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44143.58630787037</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14983,10 +14601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:04:16</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44143.58629629629</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15063,10 +14679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:04:03</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44143.58614583333</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15130,10 +14744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:03:33</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44143.58579861111</v>
       </c>
       <c r="I203" t="n">
         <v>9</v>
@@ -15205,10 +14817,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:03:28</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44143.58574074074</v>
       </c>
       <c r="I204" t="n">
         <v>1</v>
@@ -15272,10 +14882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:03:02</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44143.58543981481</v>
       </c>
       <c r="I205" t="n">
         <v>6</v>
@@ -15351,10 +14959,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:02:53</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44143.58533564815</v>
       </c>
       <c r="I206" t="n">
         <v>9</v>
@@ -15422,10 +15028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:02:36</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44143.58513888889</v>
       </c>
       <c r="I207" t="n">
         <v>806</v>
@@ -15501,10 +15105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:02:28</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44143.5850462963</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15568,10 +15170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:02:17</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44143.58491898148</v>
       </c>
       <c r="I209" t="n">
         <v>9</v>
@@ -15643,10 +15243,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:02:16</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44143.58490740741</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15714,10 +15312,8 @@
           <t>3685663891</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:01:44</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44143.58453703704</v>
       </c>
       <c r="I211" t="n">
         <v>1</v>
@@ -15794,10 +15390,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:01:36</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44143.58444444444</v>
       </c>
       <c r="I212" t="n">
         <v>284</v>
@@ -15874,10 +15468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:01:16</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44143.58421296296</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15951,10 +15543,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:01:13</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44143.58417824074</v>
       </c>
       <c r="I214" t="n">
         <v>37</v>
@@ -16030,10 +15620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:01:12</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44143.58416666667</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16105,10 +15693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:01:05</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44143.58408564814</v>
       </c>
       <c r="I216" t="n">
         <v>16</v>
@@ -16176,10 +15762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:01:01</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44143.58403935185</v>
       </c>
       <c r="I217" t="n">
         <v>1</v>
@@ -16255,10 +15839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:00:57</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44143.58399305555</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16330,10 +15912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:00:57</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44143.58399305555</v>
       </c>
       <c r="I219" t="n">
         <v>1</v>
@@ -16401,10 +15981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:00:45</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44143.58385416667</v>
       </c>
       <c r="I220" t="n">
         <v>105</v>
@@ -16480,10 +16058,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:00:32</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44143.58370370371</v>
       </c>
       <c r="I221" t="n">
         <v>2</v>
@@ -16551,10 +16127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:00:28</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44143.58365740741</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16622,10 +16196,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:00:26</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44143.58363425926</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16697,10 +16269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:00:18</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44143.58354166667</v>
       </c>
       <c r="I224" t="n">
         <v>1</v>
